--- a/Files/Tables/Creatures/Creatures/Exotic Creatures.xlsx
+++ b/Files/Tables/Creatures/Creatures/Exotic Creatures.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F704D3B7-B6A8-41B9-BD1B-604BFC3D1140}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F3A6B581-78D5-436E-88BD-DD4A40E08C91}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>This file will provide na overview of the new EXOTIC creatures added by the mod</t>
   </si>
@@ -53,6 +53,129 @@
   </si>
   <si>
     <t>DROPS</t>
+  </si>
+  <si>
+    <t>Ash Titan</t>
+  </si>
+  <si>
+    <t>Daedric Titan</t>
+  </si>
+  <si>
+    <t>Daedra</t>
+  </si>
+  <si>
+    <t>Banekin</t>
+  </si>
+  <si>
+    <t>Brassilisk</t>
+  </si>
+  <si>
+    <t>Fabricant</t>
+  </si>
+  <si>
+    <t>Hulking Fabricant</t>
+  </si>
+  <si>
+    <t>Verminous Fabricant</t>
+  </si>
+  <si>
+    <t>Air Atronach</t>
+  </si>
+  <si>
+    <t>Iron Atronach</t>
+  </si>
+  <si>
+    <t>Stone Atronach</t>
+  </si>
+  <si>
+    <t>Coral Atronach</t>
+  </si>
+  <si>
+    <t>Atronach</t>
+  </si>
+  <si>
+    <t>Bone Colossus</t>
+  </si>
+  <si>
+    <t>Bonelord</t>
+  </si>
+  <si>
+    <t>Bonewalker</t>
+  </si>
+  <si>
+    <t>Dark Seducer</t>
+  </si>
+  <si>
+    <t>Golden Saint</t>
+  </si>
+  <si>
+    <t>Daedroth</t>
+  </si>
+  <si>
+    <t>Doom Wolf</t>
+  </si>
+  <si>
+    <t>Dragonling</t>
+  </si>
+  <si>
+    <t>Draugulf</t>
+  </si>
+  <si>
+    <t>Dwarven Sentry</t>
+  </si>
+  <si>
+    <t>Dwemer Spectre</t>
+  </si>
+  <si>
+    <t>Flesh Atronach</t>
+  </si>
+  <si>
+    <t>Grievous Twilight</t>
+  </si>
+  <si>
+    <t>Harvester</t>
+  </si>
+  <si>
+    <t>Hell Hound</t>
+  </si>
+  <si>
+    <t>Lizardman</t>
+  </si>
+  <si>
+    <t>Mantikora</t>
+  </si>
+  <si>
+    <t>Medusa</t>
+  </si>
+  <si>
+    <t>Morphoid</t>
+  </si>
+  <si>
+    <t>Nereid</t>
+  </si>
+  <si>
+    <t>Nymph</t>
+  </si>
+  <si>
+    <t>Spiderkith</t>
+  </si>
+  <si>
+    <t>Unicorn</t>
+  </si>
+  <si>
+    <t>Will-o-the-Wisp</t>
+  </si>
+  <si>
+    <t>Winged Twilight</t>
+  </si>
+  <si>
+    <t>Wormmouth</t>
+  </si>
+  <si>
+    <t>Xivilai</t>
+  </si>
+  <si>
+    <t>Xivkyn</t>
   </si>
 </sst>
 </file>
@@ -450,16 +573,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K7"/>
+  <dimension ref="B1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
@@ -527,6 +650,223 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:K3"/>
